--- a/Excel/VideoCards.xlsx
+++ b/Excel/VideoCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>2gb</t>
+  </si>
+  <si>
+    <t>ManufacturerId</t>
   </si>
 </sst>
 </file>
@@ -390,95 +393,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>400</v>
       </c>
     </row>

--- a/Excel/VideoCards.xlsx
+++ b/Excel/VideoCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>ManufacturerId</t>
+  </si>
+  <si>
+    <t>gtx1060</t>
+  </si>
+  <si>
+    <t>gtx980</t>
+  </si>
+  <si>
+    <t>gtx970</t>
+  </si>
+  <si>
+    <t>r9290</t>
+  </si>
+  <si>
+    <t>r9280</t>
+  </si>
+  <si>
+    <t>r9390</t>
+  </si>
+  <si>
+    <t>r9380</t>
   </si>
 </sst>
 </file>
@@ -393,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -494,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -504,6 +525,125 @@
       </c>
       <c r="E6">
         <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
